--- a/projects/Nazarov/ControlWork_Preview/ControlWork_Preview/Resources/Excel.xlsx
+++ b/projects/Nazarov/ControlWork_Preview/ControlWork_Preview/Resources/Excel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Название</t>
   </si>
@@ -85,16 +85,46 @@
     <t>2</t>
   </si>
   <si>
-    <t>Opera</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>213</t>
+    <t>Opel</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Opera__XAML__</t>
+  </si>
+  <si>
+    <t>4312</t>
+  </si>
+  <si>
+    <t>4123</t>
+  </si>
+  <si>
+    <t>g53</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>OPLA</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -709,7 +739,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,6 +796,40 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/projects/Nazarov/ControlWork_Preview/ControlWork_Preview/Resources/Excel.xlsx
+++ b/projects/Nazarov/ControlWork_Preview/ControlWork_Preview/Resources/Excel.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CollegeProjects\projects\Nazarov\ControlWork_Preview\ControlWork_Preview\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CollegeProjects\projects\Nazarov\ControlWork_Preview\ControlWork_Preview\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AE7E1E-738E-4143-80F2-6D4F4A4E3AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB68307C-F122-4E71-95BD-79ABC35001F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19950" yWindow="3495" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2700" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shop" sheetId="2" r:id="rId1"/>
-    <sheet name="Machines" sheetId="3" r:id="rId4"/>
+    <sheet name="Shop" sheetId="4" r:id="rId1"/>
+    <sheet name="Machines" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
@@ -406,7 +406,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -680,9 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -737,13 +735,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32C24A3-4B89-4C01-88BF-6F1A1B537B41}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -831,6 +831,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/projects/Nazarov/ControlWork_Preview/ControlWork_Preview/Resources/Excel.xlsx
+++ b/projects/Nazarov/ControlWork_Preview/ControlWork_Preview/Resources/Excel.xlsx
@@ -406,7 +406,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
